--- a/4.安全建设方案-示例.xlsx
+++ b/4.安全建设方案-示例.xlsx
@@ -61,7 +61,7 @@
     <t>需要应急，优先级S</t>
   </si>
   <si>
-    <t>达到等保标准，要进行等保建设</t>
+    <t>要进行等保建设</t>
   </si>
   <si>
     <t>符合XX行业法律标准，要按行业法律进行合规改造</t>
@@ -1104,7 +1104,7 @@
   <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14"/>
